--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1а-700-21 (Фирменная-3).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1а-700-21 (Фирменная-3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C6DDC-6A88-41B9-899F-7111A2AAD3A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F68DD-E886-4EF0-94B0-491C1D74EC4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3620,6 +3620,51 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3664,11 +3709,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3684,10 +3728,74 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3698,60 +3806,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3761,29 +3815,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3791,6 +3920,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3806,110 +3949,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3919,93 +4045,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4036,6 +4075,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4045,12 +4087,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4062,48 +4104,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6762,25 +6762,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="504" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="490" t="s">
+      <c r="A2" s="505" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="507"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6791,45 +6791,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="494" t="s">
+      <c r="A4" s="509" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
+      <c r="B4" s="510"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="498"/>
+      <c r="B5" s="512"/>
+      <c r="C5" s="512"/>
+      <c r="D5" s="512"/>
+      <c r="E5" s="513"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="504" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="501"/>
+      <c r="A8" s="514"/>
+      <c r="B8" s="515"/>
+      <c r="C8" s="515"/>
+      <c r="D8" s="515"/>
+      <c r="E8" s="516"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="489" t="s">
+      <c r="A10" s="504" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="489"/>
+      <c r="B10" s="504"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6840,33 +6840,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
+      <c r="A11" s="502"/>
+      <c r="B11" s="503"/>
       <c r="D11" s="369">
         <v>44116</v>
       </c>
-      <c r="F11" s="502" t="s">
+      <c r="F11" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="502"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503" t="s">
+      <c r="G11" s="499"/>
+      <c r="H11" s="499"/>
+      <c r="I11" s="499"/>
+      <c r="J11" s="500" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="503"/>
+      <c r="K11" s="500"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="502" t="s">
+      <c r="F12" s="499" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="503" t="s">
+      <c r="G12" s="499"/>
+      <c r="H12" s="499"/>
+      <c r="I12" s="499"/>
+      <c r="J12" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="503"/>
+      <c r="K12" s="500"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6884,16 +6884,16 @@
       <c r="E13" s="455" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="502" t="s">
+      <c r="F13" s="499" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="502"/>
-      <c r="H13" s="502"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503" t="s">
+      <c r="G13" s="499"/>
+      <c r="H13" s="499"/>
+      <c r="I13" s="499"/>
+      <c r="J13" s="500" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="503"/>
+      <c r="K13" s="500"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7146,11 +7146,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="486" t="s">
+      <c r="A29" s="501" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="486"/>
-      <c r="C29" s="486"/>
+      <c r="B29" s="501"/>
+      <c r="C29" s="501"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7159,12 +7159,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7174,6 +7168,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7227,47 +7227,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7278,9 +7278,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7299,22 +7299,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7325,22 +7325,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7351,27 +7351,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="499">
+      <c r="C7" s="605"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="487">
+      <c r="J7" s="605"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7750,28 +7750,33 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="620" t="s">
+      <c r="L21" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M21" s="620"/>
-      <c r="N21" s="620"/>
+      <c r="M21" s="633"/>
+      <c r="N21" s="633"/>
       <c r="O21" s="456"/>
       <c r="P21" s="456"/>
       <c r="Q21" s="472"/>
       <c r="R21" s="472"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="552" t="s">
+      <c r="O22" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="552"/>
-      <c r="Q22" s="553" t="s">
+      <c r="P22" s="555"/>
+      <c r="Q22" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R22" s="554"/>
+      <c r="R22" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7788,11 +7793,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7858,47 +7858,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7909,9 +7909,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7930,22 +7930,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7956,22 +7956,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7982,27 +7982,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="499">
+      <c r="C7" s="605"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="487">
+      <c r="J7" s="605"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8331,12 +8331,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="630" t="s">
+      <c r="B18" s="644" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="631"/>
-      <c r="D18" s="631"/>
-      <c r="E18" s="632"/>
+      <c r="C18" s="645"/>
+      <c r="D18" s="645"/>
+      <c r="E18" s="646"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8379,28 +8379,37 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="620" t="s">
+      <c r="L21" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M21" s="620"/>
-      <c r="N21" s="620"/>
+      <c r="M21" s="633"/>
+      <c r="N21" s="633"/>
       <c r="O21" s="456"/>
       <c r="P21" s="456"/>
       <c r="Q21" s="472"/>
       <c r="R21" s="472"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="552" t="s">
+      <c r="O22" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="552"/>
-      <c r="Q22" s="553" t="s">
+      <c r="P22" s="555"/>
+      <c r="Q22" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R22" s="554"/>
+      <c r="R22" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8414,15 +8423,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8497,47 +8497,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8548,9 +8548,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8569,22 +8569,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8595,22 +8595,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8621,27 +8621,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="499">
+      <c r="C7" s="605"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="487">
+      <c r="J7" s="605"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8952,28 +8952,33 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="620" t="s">
+      <c r="L19" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="620"/>
-      <c r="N19" s="620"/>
+      <c r="M19" s="633"/>
+      <c r="N19" s="633"/>
       <c r="O19" s="456"/>
       <c r="P19" s="456"/>
       <c r="Q19" s="472"/>
       <c r="R19" s="472"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="555"/>
+      <c r="Q20" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8990,11 +8995,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9051,47 +9051,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="635">
+      <c r="J2" s="623"/>
+      <c r="K2" s="649">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="636"/>
+      <c r="L2" s="650"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="637"/>
-      <c r="L3" s="638"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="651"/>
+      <c r="L3" s="652"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9102,9 +9102,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9123,22 +9123,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9149,22 +9149,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9175,27 +9175,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="499">
+      <c r="C7" s="605"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="487">
+      <c r="J7" s="605"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9461,28 +9461,33 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="620" t="s">
+      <c r="L18" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="620"/>
-      <c r="N18" s="620"/>
+      <c r="M18" s="633"/>
+      <c r="N18" s="633"/>
       <c r="O18" s="456"/>
       <c r="P18" s="456"/>
       <c r="Q18" s="472"/>
       <c r="R18" s="472"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="552" t="s">
+      <c r="O19" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="552"/>
-      <c r="Q19" s="553" t="s">
+      <c r="P19" s="555"/>
+      <c r="Q19" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R19" s="554"/>
+      <c r="R19" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9499,11 +9504,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9533,7 +9533,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10144,11 +10144,11 @@
         <v>1.8287976190476191E-2</v>
       </c>
       <c r="H22" s="428">
-        <f>H21-F22</f>
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>16336885</v>
       </c>
       <c r="I22" s="429">
-        <f>I21-G22</f>
+        <f t="shared" si="2"/>
         <v>0.972433630952381</v>
       </c>
       <c r="J22" s="483">
@@ -10179,11 +10179,11 @@
         <v>6.6312023809523807E-2</v>
       </c>
       <c r="H23" s="428">
-        <f>H22-F23</f>
+        <f t="shared" si="2"/>
         <v>15222843</v>
       </c>
       <c r="I23" s="429">
-        <f>I22-G23</f>
+        <f t="shared" si="2"/>
         <v>0.90612160714285717</v>
       </c>
       <c r="J23" s="484">
@@ -10214,14 +10214,14 @@
         <v>4.7447976190476193E-2</v>
       </c>
       <c r="H24" s="428">
-        <f>H23-F24</f>
+        <f t="shared" si="2"/>
         <v>14425717</v>
       </c>
       <c r="I24" s="429">
-        <f>I23-G24</f>
+        <f t="shared" si="2"/>
         <v>0.85867363095238103</v>
       </c>
-      <c r="J24" s="640">
+      <c r="J24" s="486">
         <v>425</v>
       </c>
       <c r="K24" s="426"/>
@@ -10229,15 +10229,36 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="430"/>
-      <c r="B25" s="369"/>
-      <c r="C25" s="369"/>
-      <c r="D25" s="369"/>
-      <c r="E25" s="641"/>
-      <c r="F25" s="641"/>
-      <c r="G25" s="642"/>
-      <c r="H25" s="641"/>
-      <c r="I25" s="433"/>
-      <c r="J25" s="484"/>
+      <c r="B25" s="369">
+        <v>44354</v>
+      </c>
+      <c r="C25" s="369">
+        <v>44360</v>
+      </c>
+      <c r="D25" s="369">
+        <v>44378</v>
+      </c>
+      <c r="E25" s="487">
+        <v>1078560</v>
+      </c>
+      <c r="F25" s="487">
+        <v>1113316</v>
+      </c>
+      <c r="G25" s="488">
+        <f>F25/A$21</f>
+        <v>6.6268809523809522E-2</v>
+      </c>
+      <c r="H25" s="428">
+        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <v>13312401</v>
+      </c>
+      <c r="I25" s="429">
+        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <v>0.79240482142857149</v>
+      </c>
+      <c r="J25" s="484">
+        <v>424</v>
+      </c>
       <c r="K25" s="434"/>
       <c r="L25" s="382"/>
     </row>
@@ -10246,10 +10267,10 @@
       <c r="B26" s="369"/>
       <c r="C26" s="369"/>
       <c r="D26" s="369"/>
-      <c r="E26" s="641"/>
-      <c r="F26" s="641"/>
-      <c r="G26" s="642"/>
-      <c r="H26" s="641"/>
+      <c r="E26" s="487"/>
+      <c r="F26" s="487"/>
+      <c r="G26" s="488"/>
+      <c r="H26" s="487"/>
       <c r="I26" s="433"/>
       <c r="J26" s="484"/>
       <c r="K26" s="426"/>
@@ -10260,10 +10281,10 @@
       <c r="B27" s="369"/>
       <c r="C27" s="369"/>
       <c r="D27" s="369"/>
-      <c r="E27" s="641"/>
-      <c r="F27" s="641"/>
-      <c r="G27" s="642"/>
-      <c r="H27" s="641"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
+      <c r="G27" s="488"/>
+      <c r="H27" s="487"/>
       <c r="I27" s="433"/>
       <c r="J27" s="484"/>
       <c r="K27" s="426"/>
@@ -10274,10 +10295,10 @@
       <c r="B28" s="369"/>
       <c r="C28" s="369"/>
       <c r="D28" s="369"/>
-      <c r="E28" s="641"/>
-      <c r="F28" s="641"/>
-      <c r="G28" s="642"/>
-      <c r="H28" s="641"/>
+      <c r="E28" s="487"/>
+      <c r="F28" s="487"/>
+      <c r="G28" s="488"/>
+      <c r="H28" s="487"/>
       <c r="I28" s="433"/>
       <c r="J28" s="484"/>
       <c r="K28" s="426"/>
@@ -10289,11 +10310,11 @@
       <c r="C29" s="369"/>
       <c r="D29" s="366"/>
       <c r="E29" s="366"/>
-      <c r="F29" s="641"/>
-      <c r="G29" s="643"/>
-      <c r="H29" s="641"/>
-      <c r="I29" s="644"/>
-      <c r="J29" s="645"/>
+      <c r="F29" s="487"/>
+      <c r="G29" s="489"/>
+      <c r="H29" s="487"/>
+      <c r="I29" s="490"/>
+      <c r="J29" s="491"/>
       <c r="K29" s="426"/>
       <c r="L29" s="382"/>
     </row>
@@ -10303,25 +10324,25 @@
       <c r="C30" s="369"/>
       <c r="D30" s="366"/>
       <c r="E30" s="366"/>
-      <c r="F30" s="641"/>
-      <c r="G30" s="642"/>
-      <c r="H30" s="641"/>
-      <c r="I30" s="644"/>
-      <c r="J30" s="645"/>
+      <c r="F30" s="487"/>
+      <c r="G30" s="488"/>
+      <c r="H30" s="487"/>
+      <c r="I30" s="490"/>
+      <c r="J30" s="491"/>
       <c r="K30" s="426"/>
       <c r="L30" s="382"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="435"/>
-      <c r="B31" s="646"/>
-      <c r="C31" s="646"/>
-      <c r="D31" s="647"/>
-      <c r="E31" s="647"/>
-      <c r="F31" s="648"/>
-      <c r="G31" s="649"/>
-      <c r="H31" s="650"/>
-      <c r="I31" s="651"/>
-      <c r="J31" s="652"/>
+      <c r="B31" s="492"/>
+      <c r="C31" s="492"/>
+      <c r="D31" s="493"/>
+      <c r="E31" s="493"/>
+      <c r="F31" s="494"/>
+      <c r="G31" s="495"/>
+      <c r="H31" s="496"/>
+      <c r="I31" s="497"/>
+      <c r="J31" s="498"/>
       <c r="K31" s="382"/>
       <c r="L31" s="382"/>
     </row>
@@ -10334,23 +10355,23 @@
       <c r="D32" s="438"/>
       <c r="E32" s="478">
         <f>SUM(E21:E31)</f>
-        <v>2282400</v>
+        <v>3360960</v>
       </c>
       <c r="F32" s="479">
         <f>SUM(F21:F31)</f>
-        <v>2374283</v>
+        <v>3487599</v>
       </c>
       <c r="G32" s="439">
         <f>SUM(G21:G31)</f>
-        <v>0.14132636904761905</v>
+        <v>0.20759517857142856</v>
       </c>
       <c r="H32" s="440">
         <f>A21-F32</f>
-        <v>14425717</v>
+        <v>13312401</v>
       </c>
       <c r="I32" s="441">
         <f>1-G32</f>
-        <v>0.85867363095238092</v>
+        <v>0.79240482142857149</v>
       </c>
       <c r="J32" s="473"/>
       <c r="K32" s="442"/>
@@ -10369,12 +10390,12 @@
       <c r="J35" s="382"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="506" t="s">
+      <c r="A36" s="522" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="506"/>
-      <c r="C36" s="506"/>
-      <c r="D36" s="506"/>
+      <c r="B36" s="522"/>
+      <c r="C36" s="522"/>
+      <c r="D36" s="522"/>
       <c r="E36" s="382"/>
       <c r="F36" s="382"/>
       <c r="G36" s="382"/>
@@ -10383,10 +10404,10 @@
       <c r="J36" s="382"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="507" t="s">
+      <c r="A37" s="523" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="507"/>
+      <c r="B37" s="523"/>
       <c r="C37" s="443" t="s">
         <v>128</v>
       </c>
@@ -10401,18 +10422,18 @@
       <c r="J37" s="382"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="508">
+      <c r="A38" s="524">
         <f>A21-F32</f>
-        <v>14425717</v>
-      </c>
-      <c r="B38" s="509"/>
+        <v>13312401</v>
+      </c>
+      <c r="B38" s="525"/>
       <c r="C38" s="444">
         <f>1-G32</f>
-        <v>0.85867363095238092</v>
+        <v>0.79240482142857149</v>
       </c>
       <c r="D38" s="445">
         <f>(C38/0.8)*100</f>
-        <v>107.33420386904761</v>
+        <v>99.050602678571437</v>
       </c>
       <c r="E38" s="446" t="s">
         <v>130</v>
@@ -10467,8 +10488,8 @@
       <c r="F42" s="448"/>
       <c r="G42" s="448"/>
       <c r="H42" s="448"/>
-      <c r="I42" s="510"/>
-      <c r="J42" s="511"/>
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="449"/>
@@ -10562,9 +10583,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="382"/>
-      <c r="B52" s="504"/>
-      <c r="C52" s="504"/>
-      <c r="D52" s="505"/>
+      <c r="B52" s="520"/>
+      <c r="C52" s="520"/>
+      <c r="D52" s="521"/>
       <c r="E52" s="446"/>
       <c r="F52" s="382"/>
       <c r="G52" s="382"/>
@@ -10581,8 +10602,8 @@
       <c r="F53" s="448"/>
       <c r="G53" s="448"/>
       <c r="H53" s="448"/>
-      <c r="I53" s="510"/>
-      <c r="J53" s="511"/>
+      <c r="I53" s="517"/>
+      <c r="J53" s="518"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="449"/>
@@ -10593,8 +10614,8 @@
       <c r="F54" s="411"/>
       <c r="G54" s="411"/>
       <c r="H54" s="450"/>
-      <c r="I54" s="512"/>
-      <c r="J54" s="512"/>
+      <c r="I54" s="519"/>
+      <c r="J54" s="519"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="449"/>
@@ -10605,8 +10626,8 @@
       <c r="F55" s="401"/>
       <c r="G55" s="401"/>
       <c r="H55" s="401"/>
-      <c r="I55" s="512"/>
-      <c r="J55" s="512"/>
+      <c r="I55" s="519"/>
+      <c r="J55" s="519"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="382"/>
@@ -10619,25 +10640,25 @@
       <c r="H56" s="382"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="510"/>
-      <c r="C61" s="511"/>
+      <c r="B61" s="517"/>
+      <c r="C61" s="518"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="510"/>
-      <c r="C68" s="511"/>
+      <c r="B68" s="517"/>
+      <c r="C68" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10720,47 +10741,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="514" t="s">
+      <c r="A11" s="550" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="514"/>
-      <c r="C11" s="514"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="514"/>
-      <c r="F11" s="514"/>
-      <c r="G11" s="514"/>
-      <c r="H11" s="514"/>
-      <c r="I11" s="514"/>
-      <c r="J11" s="514"/>
+      <c r="B11" s="550"/>
+      <c r="C11" s="550"/>
+      <c r="D11" s="550"/>
+      <c r="E11" s="550"/>
+      <c r="F11" s="550"/>
+      <c r="G11" s="550"/>
+      <c r="H11" s="550"/>
+      <c r="I11" s="550"/>
+      <c r="J11" s="550"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="513" t="s">
+      <c r="A12" s="549" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="513"/>
-      <c r="C12" s="513"/>
-      <c r="D12" s="513"/>
-      <c r="E12" s="513"/>
-      <c r="F12" s="513"/>
-      <c r="G12" s="513"/>
-      <c r="H12" s="513"/>
-      <c r="I12" s="513"/>
-      <c r="J12" s="513"/>
+      <c r="B12" s="549"/>
+      <c r="C12" s="549"/>
+      <c r="D12" s="549"/>
+      <c r="E12" s="549"/>
+      <c r="F12" s="549"/>
+      <c r="G12" s="549"/>
+      <c r="H12" s="549"/>
+      <c r="I12" s="549"/>
+      <c r="J12" s="549"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="515" t="str">
+      <c r="A13" s="551" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="B13" s="514"/>
-      <c r="C13" s="514"/>
-      <c r="D13" s="514"/>
-      <c r="E13" s="514"/>
-      <c r="F13" s="514"/>
-      <c r="G13" s="514"/>
-      <c r="H13" s="514"/>
-      <c r="I13" s="514"/>
-      <c r="J13" s="514"/>
+      <c r="B13" s="550"/>
+      <c r="C13" s="550"/>
+      <c r="D13" s="550"/>
+      <c r="E13" s="550"/>
+      <c r="F13" s="550"/>
+      <c r="G13" s="550"/>
+      <c r="H13" s="550"/>
+      <c r="I13" s="550"/>
+      <c r="J13" s="550"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10885,499 +10906,499 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="519" t="s">
+      <c r="A22" s="547" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="519" t="s">
+      <c r="B22" s="547" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="519"/>
-      <c r="D22" s="519"/>
-      <c r="E22" s="519" t="s">
+      <c r="C22" s="547"/>
+      <c r="D22" s="547"/>
+      <c r="E22" s="547" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="519"/>
-      <c r="G22" s="537" t="s">
+      <c r="F22" s="547"/>
+      <c r="G22" s="548" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="519" t="s">
+      <c r="H22" s="547" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="519"/>
-      <c r="J22" s="519"/>
+      <c r="I22" s="547"/>
+      <c r="J22" s="547"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="519"/>
-      <c r="B23" s="519"/>
-      <c r="C23" s="519"/>
-      <c r="D23" s="519"/>
-      <c r="E23" s="519"/>
-      <c r="F23" s="519"/>
-      <c r="G23" s="537"/>
-      <c r="H23" s="519"/>
-      <c r="I23" s="519"/>
-      <c r="J23" s="519"/>
+      <c r="A23" s="547"/>
+      <c r="B23" s="547"/>
+      <c r="C23" s="547"/>
+      <c r="D23" s="547"/>
+      <c r="E23" s="547"/>
+      <c r="F23" s="547"/>
+      <c r="G23" s="548"/>
+      <c r="H23" s="547"/>
+      <c r="I23" s="547"/>
+      <c r="J23" s="547"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="520">
+      <c r="A24" s="526">
         <v>1</v>
       </c>
-      <c r="B24" s="534" t="s">
+      <c r="B24" s="552" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="535"/>
-      <c r="D24" s="536"/>
-      <c r="E24" s="522" t="str">
+      <c r="C24" s="553"/>
+      <c r="D24" s="554"/>
+      <c r="E24" s="531" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F24" s="523"/>
-      <c r="G24" s="526">
+      <c r="F24" s="532"/>
+      <c r="G24" s="535">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="528"/>
-      <c r="I24" s="529"/>
-      <c r="J24" s="530"/>
+      <c r="H24" s="537"/>
+      <c r="I24" s="538"/>
+      <c r="J24" s="539"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="521"/>
-      <c r="B25" s="516" t="str">
+      <c r="A25" s="527"/>
+      <c r="B25" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C25" s="517"/>
-      <c r="D25" s="518"/>
-      <c r="E25" s="524"/>
-      <c r="F25" s="525"/>
-      <c r="G25" s="527"/>
-      <c r="H25" s="531"/>
-      <c r="I25" s="532"/>
-      <c r="J25" s="533"/>
+      <c r="C25" s="544"/>
+      <c r="D25" s="545"/>
+      <c r="E25" s="546"/>
+      <c r="F25" s="534"/>
+      <c r="G25" s="536"/>
+      <c r="H25" s="540"/>
+      <c r="I25" s="541"/>
+      <c r="J25" s="542"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="520">
+      <c r="A26" s="526">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="538" t="s">
+      <c r="B26" s="528" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="539"/>
-      <c r="D26" s="540"/>
-      <c r="E26" s="522" t="str">
+      <c r="C26" s="529"/>
+      <c r="D26" s="530"/>
+      <c r="E26" s="531" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F26" s="523"/>
-      <c r="G26" s="526">
+      <c r="F26" s="532"/>
+      <c r="G26" s="535">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="528"/>
-      <c r="I26" s="529"/>
-      <c r="J26" s="530"/>
+      <c r="H26" s="537"/>
+      <c r="I26" s="538"/>
+      <c r="J26" s="539"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="521"/>
-      <c r="B27" s="516" t="str">
+      <c r="A27" s="527"/>
+      <c r="B27" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C27" s="517"/>
-      <c r="D27" s="518"/>
-      <c r="E27" s="524"/>
-      <c r="F27" s="525"/>
-      <c r="G27" s="527"/>
-      <c r="H27" s="531"/>
-      <c r="I27" s="532"/>
-      <c r="J27" s="533"/>
+      <c r="C27" s="544"/>
+      <c r="D27" s="545"/>
+      <c r="E27" s="546"/>
+      <c r="F27" s="534"/>
+      <c r="G27" s="536"/>
+      <c r="H27" s="540"/>
+      <c r="I27" s="541"/>
+      <c r="J27" s="542"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="520">
+      <c r="A28" s="526">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="538" t="s">
+      <c r="B28" s="528" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="539"/>
-      <c r="D28" s="540"/>
-      <c r="E28" s="522" t="str">
+      <c r="C28" s="529"/>
+      <c r="D28" s="530"/>
+      <c r="E28" s="531" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F28" s="523"/>
-      <c r="G28" s="526">
+      <c r="F28" s="532"/>
+      <c r="G28" s="535">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="528" t="s">
+      <c r="H28" s="537" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="529"/>
-      <c r="J28" s="530"/>
+      <c r="I28" s="538"/>
+      <c r="J28" s="539"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="521"/>
-      <c r="B29" s="516" t="str">
+      <c r="A29" s="527"/>
+      <c r="B29" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C29" s="517"/>
-      <c r="D29" s="518"/>
-      <c r="E29" s="524"/>
-      <c r="F29" s="525"/>
-      <c r="G29" s="527"/>
-      <c r="H29" s="531"/>
-      <c r="I29" s="532"/>
-      <c r="J29" s="533"/>
+      <c r="C29" s="544"/>
+      <c r="D29" s="545"/>
+      <c r="E29" s="546"/>
+      <c r="F29" s="534"/>
+      <c r="G29" s="536"/>
+      <c r="H29" s="540"/>
+      <c r="I29" s="541"/>
+      <c r="J29" s="542"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="520">
+      <c r="A30" s="526">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="538" t="s">
+      <c r="B30" s="528" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="539"/>
-      <c r="D30" s="540"/>
-      <c r="E30" s="522" t="str">
+      <c r="C30" s="529"/>
+      <c r="D30" s="530"/>
+      <c r="E30" s="531" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F30" s="523"/>
-      <c r="G30" s="526">
+      <c r="F30" s="532"/>
+      <c r="G30" s="535">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="528"/>
-      <c r="I30" s="529"/>
-      <c r="J30" s="530"/>
+      <c r="H30" s="537"/>
+      <c r="I30" s="538"/>
+      <c r="J30" s="539"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="521"/>
-      <c r="B31" s="516" t="str">
+      <c r="A31" s="527"/>
+      <c r="B31" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C31" s="517"/>
-      <c r="D31" s="518"/>
-      <c r="E31" s="541"/>
-      <c r="F31" s="525"/>
-      <c r="G31" s="527"/>
-      <c r="H31" s="531"/>
-      <c r="I31" s="532"/>
-      <c r="J31" s="533"/>
+      <c r="C31" s="544"/>
+      <c r="D31" s="545"/>
+      <c r="E31" s="533"/>
+      <c r="F31" s="534"/>
+      <c r="G31" s="536"/>
+      <c r="H31" s="540"/>
+      <c r="I31" s="541"/>
+      <c r="J31" s="542"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="520">
+      <c r="A32" s="526">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="538" t="s">
+      <c r="B32" s="528" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="539"/>
-      <c r="D32" s="540"/>
-      <c r="E32" s="522" t="str">
+      <c r="C32" s="529"/>
+      <c r="D32" s="530"/>
+      <c r="E32" s="531" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F32" s="523"/>
-      <c r="G32" s="526">
+      <c r="F32" s="532"/>
+      <c r="G32" s="535">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="528" t="s">
+      <c r="H32" s="537" t="s">
         <v>152</v>
       </c>
-      <c r="I32" s="529"/>
-      <c r="J32" s="530"/>
+      <c r="I32" s="538"/>
+      <c r="J32" s="539"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="521"/>
-      <c r="B33" s="516" t="str">
+      <c r="A33" s="527"/>
+      <c r="B33" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C33" s="517"/>
-      <c r="D33" s="518"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="525"/>
-      <c r="G33" s="527"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="532"/>
-      <c r="J33" s="533"/>
+      <c r="C33" s="544"/>
+      <c r="D33" s="545"/>
+      <c r="E33" s="533"/>
+      <c r="F33" s="534"/>
+      <c r="G33" s="536"/>
+      <c r="H33" s="540"/>
+      <c r="I33" s="541"/>
+      <c r="J33" s="542"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="520">
+      <c r="A34" s="526">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="538" t="s">
+      <c r="B34" s="528" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="539"/>
-      <c r="D34" s="540"/>
-      <c r="E34" s="522" t="str">
+      <c r="C34" s="529"/>
+      <c r="D34" s="530"/>
+      <c r="E34" s="531" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F34" s="523"/>
-      <c r="G34" s="526">
+      <c r="F34" s="532"/>
+      <c r="G34" s="535">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="528" t="s">
+      <c r="H34" s="537" t="s">
         <v>152</v>
       </c>
-      <c r="I34" s="529"/>
-      <c r="J34" s="530"/>
+      <c r="I34" s="538"/>
+      <c r="J34" s="539"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="521"/>
-      <c r="B35" s="516" t="str">
+      <c r="A35" s="527"/>
+      <c r="B35" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C35" s="517"/>
-      <c r="D35" s="518"/>
-      <c r="E35" s="541"/>
-      <c r="F35" s="525"/>
-      <c r="G35" s="527"/>
-      <c r="H35" s="531"/>
-      <c r="I35" s="532"/>
-      <c r="J35" s="533"/>
+      <c r="C35" s="544"/>
+      <c r="D35" s="545"/>
+      <c r="E35" s="533"/>
+      <c r="F35" s="534"/>
+      <c r="G35" s="536"/>
+      <c r="H35" s="540"/>
+      <c r="I35" s="541"/>
+      <c r="J35" s="542"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="520">
+      <c r="A36" s="526">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="538" t="s">
+      <c r="B36" s="528" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="539"/>
-      <c r="D36" s="540"/>
-      <c r="E36" s="522" t="str">
+      <c r="C36" s="529"/>
+      <c r="D36" s="530"/>
+      <c r="E36" s="531" t="str">
         <f>Данные!C20</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F36" s="523"/>
-      <c r="G36" s="526">
+      <c r="F36" s="532"/>
+      <c r="G36" s="535">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="528"/>
-      <c r="I36" s="529"/>
-      <c r="J36" s="530"/>
+      <c r="H36" s="537"/>
+      <c r="I36" s="538"/>
+      <c r="J36" s="539"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="521"/>
-      <c r="B37" s="516" t="str">
+      <c r="A37" s="527"/>
+      <c r="B37" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C37" s="517"/>
-      <c r="D37" s="518"/>
-      <c r="E37" s="541"/>
-      <c r="F37" s="525"/>
-      <c r="G37" s="527"/>
-      <c r="H37" s="531"/>
-      <c r="I37" s="532"/>
-      <c r="J37" s="533"/>
+      <c r="C37" s="544"/>
+      <c r="D37" s="545"/>
+      <c r="E37" s="533"/>
+      <c r="F37" s="534"/>
+      <c r="G37" s="536"/>
+      <c r="H37" s="540"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="520">
+      <c r="A38" s="526">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="538" t="s">
+      <c r="B38" s="528" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="539"/>
-      <c r="D38" s="540"/>
-      <c r="E38" s="522" t="str">
+      <c r="C38" s="529"/>
+      <c r="D38" s="530"/>
+      <c r="E38" s="531" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F38" s="523"/>
-      <c r="G38" s="526">
+      <c r="F38" s="532"/>
+      <c r="G38" s="535">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="528"/>
-      <c r="I38" s="529"/>
-      <c r="J38" s="530"/>
+      <c r="H38" s="537"/>
+      <c r="I38" s="538"/>
+      <c r="J38" s="539"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="521"/>
-      <c r="B39" s="516" t="str">
+      <c r="A39" s="527"/>
+      <c r="B39" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C39" s="517"/>
-      <c r="D39" s="518"/>
-      <c r="E39" s="541"/>
-      <c r="F39" s="525"/>
-      <c r="G39" s="527"/>
-      <c r="H39" s="531"/>
-      <c r="I39" s="532"/>
-      <c r="J39" s="533"/>
+      <c r="C39" s="544"/>
+      <c r="D39" s="545"/>
+      <c r="E39" s="533"/>
+      <c r="F39" s="534"/>
+      <c r="G39" s="536"/>
+      <c r="H39" s="540"/>
+      <c r="I39" s="541"/>
+      <c r="J39" s="542"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="520">
+      <c r="A40" s="526">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="538" t="s">
+      <c r="B40" s="528" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="539"/>
-      <c r="D40" s="540"/>
-      <c r="E40" s="522" t="str">
+      <c r="C40" s="529"/>
+      <c r="D40" s="530"/>
+      <c r="E40" s="531" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F40" s="523"/>
-      <c r="G40" s="526">
+      <c r="F40" s="532"/>
+      <c r="G40" s="535">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="528"/>
-      <c r="I40" s="529"/>
-      <c r="J40" s="530"/>
+      <c r="H40" s="537"/>
+      <c r="I40" s="538"/>
+      <c r="J40" s="539"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="521"/>
-      <c r="B41" s="516" t="str">
+      <c r="A41" s="527"/>
+      <c r="B41" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C41" s="517"/>
-      <c r="D41" s="518"/>
-      <c r="E41" s="541"/>
-      <c r="F41" s="525"/>
-      <c r="G41" s="527"/>
-      <c r="H41" s="531"/>
-      <c r="I41" s="532"/>
-      <c r="J41" s="533"/>
+      <c r="C41" s="544"/>
+      <c r="D41" s="545"/>
+      <c r="E41" s="533"/>
+      <c r="F41" s="534"/>
+      <c r="G41" s="536"/>
+      <c r="H41" s="540"/>
+      <c r="I41" s="541"/>
+      <c r="J41" s="542"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="520">
+      <c r="A42" s="526">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="538" t="s">
+      <c r="B42" s="528" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="539"/>
-      <c r="D42" s="540"/>
-      <c r="E42" s="522" t="str">
+      <c r="C42" s="529"/>
+      <c r="D42" s="530"/>
+      <c r="E42" s="531" t="str">
         <f>Данные!C26</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F42" s="523"/>
-      <c r="G42" s="526">
+      <c r="F42" s="532"/>
+      <c r="G42" s="535">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="528"/>
-      <c r="I42" s="529"/>
-      <c r="J42" s="530"/>
+      <c r="H42" s="537"/>
+      <c r="I42" s="538"/>
+      <c r="J42" s="539"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="521"/>
-      <c r="B43" s="516" t="str">
+      <c r="A43" s="527"/>
+      <c r="B43" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C43" s="517"/>
-      <c r="D43" s="518"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="525"/>
-      <c r="G43" s="527"/>
-      <c r="H43" s="531"/>
-      <c r="I43" s="532"/>
-      <c r="J43" s="533"/>
+      <c r="C43" s="544"/>
+      <c r="D43" s="545"/>
+      <c r="E43" s="533"/>
+      <c r="F43" s="534"/>
+      <c r="G43" s="536"/>
+      <c r="H43" s="540"/>
+      <c r="I43" s="541"/>
+      <c r="J43" s="542"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="520">
+      <c r="A44" s="526">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="538" t="s">
+      <c r="B44" s="528" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="539"/>
-      <c r="D44" s="540"/>
-      <c r="E44" s="522" t="str">
+      <c r="C44" s="529"/>
+      <c r="D44" s="530"/>
+      <c r="E44" s="531" t="str">
         <f>Данные!C27</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F44" s="523"/>
-      <c r="G44" s="526">
+      <c r="F44" s="532"/>
+      <c r="G44" s="535">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="528"/>
-      <c r="I44" s="529"/>
-      <c r="J44" s="530"/>
+      <c r="H44" s="537"/>
+      <c r="I44" s="538"/>
+      <c r="J44" s="539"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="521"/>
-      <c r="B45" s="516" t="str">
+      <c r="A45" s="527"/>
+      <c r="B45" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C45" s="517"/>
-      <c r="D45" s="518"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="525"/>
-      <c r="G45" s="527"/>
-      <c r="H45" s="531"/>
-      <c r="I45" s="532"/>
-      <c r="J45" s="533"/>
+      <c r="C45" s="544"/>
+      <c r="D45" s="545"/>
+      <c r="E45" s="533"/>
+      <c r="F45" s="534"/>
+      <c r="G45" s="536"/>
+      <c r="H45" s="540"/>
+      <c r="I45" s="541"/>
+      <c r="J45" s="542"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="520">
+      <c r="A46" s="526">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="538" t="s">
+      <c r="B46" s="528" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="539"/>
-      <c r="D46" s="540"/>
-      <c r="E46" s="522" t="str">
+      <c r="C46" s="529"/>
+      <c r="D46" s="530"/>
+      <c r="E46" s="531" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-28-2.1а-700-21</v>
       </c>
-      <c r="F46" s="523"/>
-      <c r="G46" s="526">
+      <c r="F46" s="532"/>
+      <c r="G46" s="535">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="528"/>
-      <c r="I46" s="529"/>
-      <c r="J46" s="530"/>
+      <c r="H46" s="537"/>
+      <c r="I46" s="538"/>
+      <c r="J46" s="539"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="521"/>
-      <c r="B47" s="516" t="str">
+      <c r="A47" s="527"/>
+      <c r="B47" s="543" t="str">
         <f>Данные!$A$30</f>
         <v>(к формокомплекту Бутылка XXI-В-28-2.1а-700-21 Фирменная-3)</v>
       </c>
-      <c r="C47" s="517"/>
-      <c r="D47" s="518"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="525"/>
-      <c r="G47" s="527"/>
-      <c r="H47" s="531"/>
-      <c r="I47" s="532"/>
-      <c r="J47" s="533"/>
+      <c r="C47" s="544"/>
+      <c r="D47" s="545"/>
+      <c r="E47" s="533"/>
+      <c r="F47" s="534"/>
+      <c r="G47" s="536"/>
+      <c r="H47" s="540"/>
+      <c r="I47" s="541"/>
+      <c r="J47" s="542"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11506,70 +11527,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11586,6 +11543,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11640,47 +11661,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="559"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="568" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="569"/>
+      <c r="G2" s="569"/>
+      <c r="H2" s="570"/>
+      <c r="I2" s="575" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="576"/>
+      <c r="K2" s="579">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="580"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="571"/>
+      <c r="Q2" s="571"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="562"/>
+      <c r="C3" s="563"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="572" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="573"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="574"/>
+      <c r="I3" s="577"/>
+      <c r="J3" s="578"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11691,9 +11712,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11712,22 +11733,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="587"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="588"/>
+      <c r="J5" s="589"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11738,22 +11759,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="588"/>
+      <c r="J6" s="589"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11764,27 +11785,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="548"/>
-      <c r="D7" s="499">
+      <c r="C7" s="597"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="547" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="551"/>
-      <c r="K7" s="487">
+      <c r="J7" s="600"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12258,12 +12279,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="542" t="s">
+      <c r="B23" s="593" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="543"/>
-      <c r="D23" s="543"/>
-      <c r="E23" s="544"/>
+      <c r="C23" s="594"/>
+      <c r="D23" s="594"/>
+      <c r="E23" s="595"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12285,12 +12306,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="580" t="s">
+      <c r="B24" s="583" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="581"/>
-      <c r="D24" s="581"/>
-      <c r="E24" s="582"/>
+      <c r="C24" s="584"/>
+      <c r="D24" s="584"/>
+      <c r="E24" s="585"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12333,28 +12354,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="555" t="s">
+      <c r="K27" s="558" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="555"/>
-      <c r="M27" s="555"/>
+      <c r="L27" s="558"/>
+      <c r="M27" s="558"/>
       <c r="N27" s="456"/>
       <c r="O27" s="456"/>
       <c r="P27" s="472"/>
       <c r="Q27" s="472"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="552" t="s">
+      <c r="N28" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="O28" s="552"/>
-      <c r="P28" s="553" t="s">
+      <c r="O28" s="555"/>
+      <c r="P28" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" s="554"/>
+      <c r="Q28" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12371,13 +12399,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12443,50 +12464,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="607">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="571"/>
+      <c r="Q2" s="571"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12497,9 +12518,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12518,22 +12539,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12544,22 +12565,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12570,27 +12591,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="499">
+      <c r="C7" s="605"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="487">
+      <c r="J7" s="605"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12781,12 +12802,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="589" t="s">
+      <c r="B14" s="631" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="590"/>
-      <c r="D14" s="590"/>
-      <c r="E14" s="590"/>
+      <c r="C14" s="632"/>
+      <c r="D14" s="632"/>
+      <c r="E14" s="632"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12808,13 +12829,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="593" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="543"/>
-      <c r="E15" s="543"/>
-      <c r="F15" s="588"/>
+      <c r="C15" s="594"/>
+      <c r="D15" s="594"/>
+      <c r="E15" s="594"/>
+      <c r="F15" s="630"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12833,12 +12854,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="580" t="s">
+      <c r="B16" s="583" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="581"/>
-      <c r="D16" s="581"/>
-      <c r="E16" s="582"/>
+      <c r="C16" s="584"/>
+      <c r="D16" s="584"/>
+      <c r="E16" s="585"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12885,28 +12906,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="555" t="s">
+      <c r="L19" s="558" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="555"/>
-      <c r="N19" s="555"/>
+      <c r="M19" s="558"/>
+      <c r="N19" s="558"/>
       <c r="O19" s="456"/>
       <c r="P19" s="456"/>
       <c r="Q19" s="472"/>
       <c r="R19" s="472"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="555"/>
+      <c r="Q20" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12920,17 +12952,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13004,47 +13025,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="559"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="568" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="569"/>
+      <c r="G2" s="569"/>
+      <c r="H2" s="570"/>
+      <c r="I2" s="575" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="576"/>
+      <c r="K2" s="579">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="580"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="571"/>
+      <c r="Q2" s="571"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="562"/>
+      <c r="C3" s="563"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="572" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="573"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="574"/>
+      <c r="I3" s="577"/>
+      <c r="J3" s="578"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13055,9 +13076,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13076,22 +13097,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="587"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="588"/>
+      <c r="J5" s="589"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13102,22 +13123,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="588"/>
+      <c r="J6" s="589"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13128,27 +13149,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="548"/>
-      <c r="D7" s="499">
+      <c r="C7" s="597"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="547" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="551"/>
-      <c r="K7" s="487">
+      <c r="J7" s="600"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13616,35 +13637,28 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="620" t="s">
+      <c r="L23" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M23" s="620"/>
-      <c r="N23" s="620"/>
+      <c r="M23" s="633"/>
+      <c r="N23" s="633"/>
       <c r="O23" s="456"/>
       <c r="P23" s="456"/>
       <c r="Q23" s="472"/>
       <c r="R23" s="472"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="552" t="s">
+      <c r="O24" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="552"/>
-      <c r="Q24" s="553" t="s">
+      <c r="P24" s="555"/>
+      <c r="Q24" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R24" s="554"/>
+      <c r="R24" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13659,6 +13673,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13726,47 +13747,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="559"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="568" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="569"/>
+      <c r="G2" s="569"/>
+      <c r="H2" s="570"/>
+      <c r="I2" s="575" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="576"/>
+      <c r="K2" s="579">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="580"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="562"/>
+      <c r="C3" s="563"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="572" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="573"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="574"/>
+      <c r="I3" s="577"/>
+      <c r="J3" s="578"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13777,9 +13798,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13798,22 +13819,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="587"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="588"/>
+      <c r="J5" s="589"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13824,22 +13845,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="588"/>
+      <c r="J6" s="589"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13850,27 +13871,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="548"/>
-      <c r="D7" s="499">
+      <c r="C7" s="597"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="547" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="551"/>
-      <c r="K7" s="487">
+      <c r="J7" s="600"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14150,34 +14171,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="620" t="s">
+      <c r="L18" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="620"/>
-      <c r="N18" s="620"/>
+      <c r="M18" s="633"/>
+      <c r="N18" s="633"/>
       <c r="O18" s="456"/>
       <c r="P18" s="456"/>
       <c r="Q18" s="472"/>
       <c r="R18" s="472"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="552" t="s">
+      <c r="O19" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="552"/>
-      <c r="Q19" s="553" t="s">
+      <c r="P19" s="555"/>
+      <c r="Q19" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R19" s="554"/>
+      <c r="R19" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14193,6 +14208,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14264,60 +14285,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="611"/>
-      <c r="M2" s="622"/>
-      <c r="N2" s="623"/>
-      <c r="O2" s="623"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
-      <c r="R2" s="624"/>
+      <c r="L2" s="627"/>
+      <c r="M2" s="635"/>
+      <c r="N2" s="636"/>
+      <c r="O2" s="636"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
+      <c r="R2" s="637"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
-      <c r="M3" s="625"/>
-      <c r="N3" s="626"/>
-      <c r="O3" s="626"/>
-      <c r="P3" s="626"/>
-      <c r="Q3" s="626"/>
-      <c r="R3" s="627"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
+      <c r="M3" s="638"/>
+      <c r="N3" s="639"/>
+      <c r="O3" s="639"/>
+      <c r="P3" s="639"/>
+      <c r="Q3" s="639"/>
+      <c r="R3" s="640"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14326,95 +14347,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="625"/>
-      <c r="N4" s="626"/>
-      <c r="O4" s="626"/>
-      <c r="P4" s="626"/>
-      <c r="Q4" s="626"/>
-      <c r="R4" s="627"/>
+      <c r="M4" s="638"/>
+      <c r="N4" s="639"/>
+      <c r="O4" s="639"/>
+      <c r="P4" s="639"/>
+      <c r="Q4" s="639"/>
+      <c r="R4" s="640"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="498"/>
-      <c r="M5" s="625"/>
-      <c r="N5" s="626"/>
-      <c r="O5" s="626"/>
-      <c r="P5" s="626"/>
-      <c r="Q5" s="626"/>
-      <c r="R5" s="627"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="513"/>
+      <c r="M5" s="638"/>
+      <c r="N5" s="639"/>
+      <c r="O5" s="639"/>
+      <c r="P5" s="639"/>
+      <c r="Q5" s="639"/>
+      <c r="R5" s="640"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="498"/>
-      <c r="M6" s="625"/>
-      <c r="N6" s="626"/>
-      <c r="O6" s="626"/>
-      <c r="P6" s="626"/>
-      <c r="Q6" s="626"/>
-      <c r="R6" s="627"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="513"/>
+      <c r="M6" s="638"/>
+      <c r="N6" s="639"/>
+      <c r="O6" s="639"/>
+      <c r="P6" s="639"/>
+      <c r="Q6" s="639"/>
+      <c r="R6" s="640"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="499">
+      <c r="C7" s="605"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="487">
+      <c r="J7" s="605"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
-      <c r="M7" s="625"/>
-      <c r="N7" s="626"/>
-      <c r="O7" s="626"/>
-      <c r="P7" s="626"/>
-      <c r="Q7" s="626"/>
-      <c r="R7" s="627"/>
+      <c r="L7" s="503"/>
+      <c r="M7" s="638"/>
+      <c r="N7" s="639"/>
+      <c r="O7" s="639"/>
+      <c r="P7" s="639"/>
+      <c r="Q7" s="639"/>
+      <c r="R7" s="640"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14816,12 +14837,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="580" t="s">
+      <c r="B21" s="583" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="581"/>
-      <c r="D21" s="581"/>
-      <c r="E21" s="582"/>
+      <c r="C21" s="584"/>
+      <c r="D21" s="584"/>
+      <c r="E21" s="585"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14866,28 +14887,34 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="620" t="s">
+      <c r="L24" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M24" s="620"/>
-      <c r="N24" s="620"/>
+      <c r="M24" s="633"/>
+      <c r="N24" s="633"/>
       <c r="O24" s="456"/>
       <c r="P24" s="456"/>
       <c r="Q24" s="472"/>
       <c r="R24" s="472"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="552" t="s">
+      <c r="O25" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="552"/>
-      <c r="Q25" s="553" t="s">
+      <c r="P25" s="555"/>
+      <c r="Q25" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R25" s="554"/>
+      <c r="R25" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14904,12 +14931,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14974,47 +14995,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15025,9 +15046,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15046,22 +15067,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="614"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="616"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15072,22 +15093,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="614"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1а-700-21 Фирменная-3</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="615"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15098,27 +15119,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="547" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="618"/>
-      <c r="D7" s="499">
+      <c r="C7" s="605"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="549"/>
-      <c r="H7" s="550"/>
-      <c r="I7" s="619" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="618"/>
-      <c r="K7" s="487">
+      <c r="J7" s="605"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15375,12 +15396,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="580" t="s">
+      <c r="B16" s="583" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="581"/>
-      <c r="D16" s="581"/>
-      <c r="E16" s="582"/>
+      <c r="C16" s="584"/>
+      <c r="D16" s="584"/>
+      <c r="E16" s="585"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15425,28 +15446,38 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="620" t="s">
+      <c r="L19" s="633" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="620"/>
-      <c r="N19" s="620"/>
+      <c r="M19" s="633"/>
+      <c r="N19" s="633"/>
       <c r="O19" s="456"/>
       <c r="P19" s="456"/>
       <c r="Q19" s="472"/>
       <c r="R19" s="472"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="555" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="555"/>
+      <c r="Q20" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15459,16 +15490,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
